--- a/datas/luckytest_test.xlsx
+++ b/datas/luckytest_test.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82AB3F-44B8-401F-B492-B9197B115957}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6435" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="invest" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="bidLoan112" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="login" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="list " sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="bidLoan" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="add" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="audit" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="getLoanList" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="generateRepayments" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="getInvestsByMemberId" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="getInvestsByLoanId" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="getFinanceLogList" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="invest" sheetId="1" r:id="rId1"/>
+    <sheet name="bidLoan112" sheetId="2" r:id="rId2"/>
+    <sheet name="register" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="4" r:id="rId4"/>
+    <sheet name="recharge" sheetId="5" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="6" r:id="rId6"/>
+    <sheet name="list " sheetId="7" r:id="rId7"/>
+    <sheet name="bidLoan" sheetId="8" r:id="rId8"/>
+    <sheet name="add" sheetId="9" r:id="rId9"/>
+    <sheet name="audit" sheetId="10" r:id="rId10"/>
+    <sheet name="getLoanList" sheetId="11" r:id="rId11"/>
+    <sheet name="generateRepayments" sheetId="12" r:id="rId12"/>
+    <sheet name="getInvestsByMemberId" sheetId="13" r:id="rId13"/>
+    <sheet name="getInvestsByLoanId" sheetId="14" r:id="rId14"/>
+    <sheet name="getFinanceLogList" sheetId="15" r:id="rId15"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="299">
   <si>
     <t>case_id</t>
   </si>
@@ -160,9 +166,6 @@
     <t>/member/register</t>
   </si>
   <si>
-    <t>{"mobilephone": "#@mobilephone", "pwd": "123456", "regname": "luckytest"}</t>
-  </si>
-  <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
@@ -802,205 +805,223 @@
     <t>抱歉，请先登录（有bug）</t>
   </si>
   <si>
+    <t>{"mobilephone": "15666666668", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>参数错误：所有参数不能为空(status="")</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": ""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
+  </si>
+  <si>
+    <t>参数错误：所有参数不能为空(id="")</t>
+  </si>
+  <si>
+    <t>{"id": "",  "status": 1}</t>
+  </si>
+  <si>
+    <t>参数错误：错误的标id值(id=-1)</t>
+  </si>
+  <si>
+    <t>{"id": -1,  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20204","data":null,"msg":"参数错误：错误的标id值"}</t>
+  </si>
+  <si>
+    <t>参数错误：非法status参数，状态值1-11(status=-1)</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": -1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20205","data":null,"msg":"参数错误：非法status参数，状态值1-11"}</t>
+  </si>
+  <si>
+    <t>参数错误：非法status参数，状态值1-11(status=0)</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": 0}</t>
+  </si>
+  <si>
+    <t>不存在该项目(id=99999)</t>
+  </si>
+  <si>
+    <t>{"id": 99999,  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
+  </si>
+  <si>
+    <t>修改失败，当前标已经是该状态(status=1)</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
+  </si>
+  <si>
+    <t>还款完成 项目所有的还款都已完成(status=10)</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": 10}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"还款完成 项目所有的还款都已完成"}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字(id="abc")</t>
+  </si>
+  <si>
+    <t>{"id": "abc",  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20212","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字(id="(*&amp;^")</t>
+  </si>
+  <si>
+    <t>{"id": "(*&amp;^",  "status": -1}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字(status="abc")</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": "abc"}</t>
+  </si>
+  <si>
+    <t>请根据数值参数的类型对应输入合法的数字(status="(*(*^")</t>
+  </si>
+  <si>
+    <t>{"id": 11587,  "status": "(*(*^"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：审核通过，当前标为二审(初审中)状态(status=2)</t>
+  </si>
+  <si>
+    <t>{"id": 11580,  "status": 2}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：审核通过，当前标为三审(复审中)状态(status=3)</t>
+  </si>
+  <si>
+    <t>{"id": 11580,  "status": 3}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为三审(复审中)状态"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：竞标开始，当前标为竞标中状态(status=4)</t>
+  </si>
+  <si>
+    <t>{"id": 11580,  "status": 4}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：当前标为核保审批状态(status=5)</t>
+  </si>
+  <si>
+    <t>{"id": 11581,  "status": 5}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：当前标为平台终审状态(status=6)</t>
+  </si>
+  <si>
+    <t>{"id": 11581,  "status": 6}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
+  </si>
+  <si>
+    <t>还款中(status=7)</t>
+  </si>
+  <si>
+    <t>{"id": 11581,  "status": 7}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：还款中"}</t>
+  </si>
+  <si>
+    <t>更新状态成功：审核通过，当前标为审核中状态(status=1)</t>
+  </si>
+  <si>
+    <t>{"id": 11581,  "status": 1}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为审核中状态"}</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "#@mobilephone", "pwd": "123456", "regname": "luckytest"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "${login_mobile_phone}", "pwd": "${login_mobile_pwd}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "${recharge_mobile_phone}", "amount": "${recharge_amount}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId": "${add_memberId}", "title": "${add_title}", "amount": "${add_amount}", "loanRate": "${add_loanRate}", "loanTerm": "${add_loanTerm}",
+        "loanDateType": "${add_loanDateType}", "repaymemtWay": "${add_repaymemtWay}", "biddingDays": "${add_biddingDays}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"Id":11587,  "status":1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "15666666668", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>参数错误：所有参数不能为空(status="")</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": ""}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
-  </si>
-  <si>
-    <t>参数错误：所有参数不能为空(id="")</t>
-  </si>
-  <si>
-    <t>{"id": "",  "status": 1}</t>
-  </si>
-  <si>
-    <t>参数错误：错误的标id值(id=-1)</t>
-  </si>
-  <si>
-    <t>{"id": -1,  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20204","data":null,"msg":"参数错误：错误的标id值"}</t>
-  </si>
-  <si>
-    <t>参数错误：非法status参数，状态值1-11(status=-1)</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": -1}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20205","data":null,"msg":"参数错误：非法status参数，状态值1-11"}</t>
-  </si>
-  <si>
-    <t>参数错误：非法status参数，状态值1-11(status=0)</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": 0}</t>
-  </si>
-  <si>
-    <t>不存在该项目(id=99999)</t>
-  </si>
-  <si>
-    <t>{"id": 99999,  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
-  </si>
-  <si>
-    <t>修改失败，当前标已经是该状态(status=1)</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
-  </si>
-  <si>
-    <t>还款完成 项目所有的还款都已完成(status=10)</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": 10}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"还款完成 项目所有的还款都已完成"}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字(id="abc")</t>
-  </si>
-  <si>
-    <t>{"id": "abc",  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20212","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字(id="(*&amp;^")</t>
-  </si>
-  <si>
-    <t>{"id": "(*&amp;^",  "status": -1}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字(status="abc")</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": "abc"}</t>
-  </si>
-  <si>
-    <t>请根据数值参数的类型对应输入合法的数字(status="(*(*^")</t>
-  </si>
-  <si>
-    <t>{"id": 11587,  "status": "(*(*^"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：审核通过，当前标为二审(初审中)状态(status=2)</t>
-  </si>
-  <si>
-    <t>{"id": 11580,  "status": 2}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：审核通过，当前标为三审(复审中)状态(status=3)</t>
-  </si>
-  <si>
-    <t>{"id": 11580,  "status": 3}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为三审(复审中)状态"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：竞标开始，当前标为竞标中状态(status=4)</t>
-  </si>
-  <si>
-    <t>{"id": 11580,  "status": 4}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：当前标为核保审批状态(status=5)</t>
-  </si>
-  <si>
-    <t>{"id": 11581,  "status": 5}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：当前标为平台终审状态(status=6)</t>
-  </si>
-  <si>
-    <t>{"id": 11581,  "status": 6}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
-  </si>
-  <si>
-    <t>还款中(status=7)</t>
-  </si>
-  <si>
-    <t>{"id": 11581,  "status": 7}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：还款中"}</t>
-  </si>
-  <si>
-    <t>更新状态成功：审核通过，当前标为审核中状态(status=1)</t>
-  </si>
-  <si>
-    <t>{"id": 11581,  "status": 1}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为审核中状态"}</t>
-  </si>
-  <si>
-    <t>Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="0.00_ " numFmtId="164"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1016,34 +1037,265 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>570400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A243F7-4F36-413C-BC04-9D9CBDE30FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8800000" cy="3733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>150409</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C9C023-F6A5-4D26-8315-8973B0A58C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4505325"/>
+          <a:ext cx="15923809" cy="5885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>17093</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>151689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF982518-6D9D-41C3-82B2-FDE6337F8361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="16925925"/>
+          <a:ext cx="15657143" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>664851</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC0F94-52A7-45E1-A7FD-CB29543952EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791575" y="0"/>
+          <a:ext cx="15190476" cy="4514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>579066</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>103782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EAD171-BB16-484A-B400-7784D276F103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10506075"/>
+          <a:ext cx="15666666" cy="7942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1330,29 +1582,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="G2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.125"/>
-    <col customWidth="1" max="2" min="2" width="18"/>
-    <col customWidth="1" max="3" min="3" width="16"/>
-    <col customWidth="1" max="4" min="4" width="94.125"/>
-    <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" style="3" width="9.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="45.375"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="94.125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="45.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,8 +1626,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1394,7 +1642,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>10001</v>
       </c>
       <c r="G2" t="s">
@@ -1404,8 +1652,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1420,18 +1668,18 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>10001</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1446,18 +1694,18 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>10001</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1472,12 +1720,12 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>10001</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1492,18 +1740,18 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>10001</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1518,18 +1766,18 @@
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>10003</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1544,46 +1792,44 @@
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>10007</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet8">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.375"/>
-    <col customWidth="1" max="2" min="2" width="24.5"/>
-    <col customWidth="1" max="3" min="3" width="14.25"/>
-    <col customWidth="1" max="4" min="4" width="31.875"/>
-    <col customWidth="1" max="5" min="5" width="7.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="41.125"/>
-    <col customWidth="1" max="7" min="7" width="36.625"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="41.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1609,30 +1855,30 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1642,523 +1888,501 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="20" spans="1:8">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="21" spans="1:8">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="22" spans="1:8">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>294</v>
+      <c r="F22" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet9">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet10">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet11">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet12">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet13">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet14">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="39.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="40.25"/>
-    <col customWidth="1" max="7" min="7" style="1" width="24.875"/>
-    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2184,8 +2408,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2200,7 +2424,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -2210,8 +2434,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2230,8 +2454,8 @@
         <v>34</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2250,8 +2474,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2271,36 +2495,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="G2:H8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.625"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="39.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="7.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="33.875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="38.75"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="11.625"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,8 +2548,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2337,171 +2559,169 @@
         <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="G2:H7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="16.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="36.75"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7.5"/>
-    <col customWidth="1" max="6" min="6" style="6" width="34.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="36.125"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2737,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2527,163 +2747,160 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>63</v>
+      <c r="F7" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="4.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="22.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="40.25"/>
-    <col customWidth="1" max="5" min="5" style="1" width="4.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="42.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="33.125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7"/>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2709,28 +2926,28 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2740,86 +2957,84 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>85</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="5.125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="18.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="16.625"/>
-    <col customWidth="1" max="4" min="4" style="1" width="39.75"/>
-    <col customWidth="1" max="5" min="5" style="1" width="5.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="41.5"/>
-    <col customWidth="1" max="7" min="7" style="1" width="39.875"/>
-    <col customWidth="1" max="8" min="8" style="1" width="6.625"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2845,28 +3060,28 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2876,84 +3091,81 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="94.5" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="24.25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="17.125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="39.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="40.25"/>
-    <col customWidth="1" max="7" min="7" style="1" width="34.75"/>
-    <col customWidth="1" max="8" min="8" style="1" width="12.625"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2979,28 +3191,28 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3010,27 +3222,27 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -3039,8 +3251,8 @@
         <v>34</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3050,7 +3262,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -3059,18 +3271,18 @@
         <v>34</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -3079,18 +3291,18 @@
         <v>34</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -3099,88 +3311,88 @@
         <v>34</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3190,7 +3402,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -3199,8 +3411,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3210,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
@@ -3219,18 +3431,18 @@
         <v>40</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>20</v>
@@ -3239,18 +3451,18 @@
         <v>40</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>20</v>
@@ -3259,197 +3471,195 @@
         <v>40</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="20" spans="1:8">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="21" spans="1:8">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="22" spans="1:8">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="4.625"/>
-    <col customWidth="1" max="2" min="2" width="17"/>
-    <col customWidth="1" max="3" min="3" width="13.75"/>
-    <col customWidth="1" max="4" min="4" width="71.25"/>
-    <col customWidth="1" max="5" min="5" width="4.75"/>
-    <col customWidth="1" max="6" min="6" style="1" width="36.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="39"/>
-    <col customWidth="1" max="8" min="8" width="7.25"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="71.25" customWidth="1"/>
+    <col min="5" max="5" width="4.75" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3475,28 +3685,28 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3506,937 +3716,938 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="20" spans="1:8">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="21" spans="1:8">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="22" spans="1:8">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="24" spans="1:8">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="25" spans="1:8">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="26" spans="1:8">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="27" spans="1:8">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="28" spans="1:8">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="29" spans="1:8">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="30" spans="1:8">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="31" spans="1:8">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="32" spans="1:8">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="33" spans="1:8">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="34" spans="1:8">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="35" spans="1:8">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="36" spans="1:8">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="37" spans="1:8">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="38" spans="1:8">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="39" spans="1:8">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="40" spans="1:8">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="41" spans="1:8">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="42" spans="1:8">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="43" spans="1:8">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="44" spans="1:8">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="45" spans="1:8">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="46" spans="1:8">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="47" spans="1:8">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="48" spans="1:8">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.5" r="49" spans="1:8">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>